--- a/KẾ TOÁN - THÁI HẰNG/VĂN BẢN HÀNH CHÍNH/CHI TIÊU VĂN PHÒNG.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/VĂN BẢN HÀNH CHÍNH/CHI TIÊU VĂN PHÒNG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,61 +71,61 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1" tint="-0.499984740745262"/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1" tint="-0.499984740745262"/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <color theme="1" tint="-0.499984740745262"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1" tint="-0.499984740745262"/>
+      <sz val="16"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1" tint="-0.499984740745262"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="-0.499984740745262"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -221,60 +221,60 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,6 +284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,389 +582,389 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="14" t="s">
+    <row r="7" spans="1:10" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
